--- a/apiData/single.xlsx
+++ b/apiData/single.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" firstSheet="4" activeTab="11"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
-    <sheet name="0-登录接口参数get" sheetId="2" r:id="rId1"/>
+    <sheet name="1" sheetId="2" r:id="rId1"/>
     <sheet name="1-登录接口断言" sheetId="1" r:id="rId2"/>
     <sheet name="2-添加商机接口json传参" sheetId="5" r:id="rId3"/>
     <sheet name="3-添加商机接口断言" sheetId="3" r:id="rId4"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="48">
   <si>
     <t>username</t>
   </si>
@@ -33,22 +33,37 @@
     <t>password</t>
   </si>
   <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>cmd</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
     <t>qiaolin</t>
   </si>
   <si>
     <t>8579173b7f0ad165551bf8e892d3dee7</t>
   </si>
   <si>
+    <t>http://120.52.157.131:58080/apis/zznode-csm/cms/login</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>response_json["data"]["userInfo"]["employee"]["name"]</t>
+  </si>
+  <si>
+    <t>乔琳</t>
+  </si>
+  <si>
     <t>null</t>
-  </si>
-  <si>
-    <t>http://120.52.157.131:58080/apis/zznode-csm/cms/login</t>
-  </si>
-  <si>
-    <t>response_json["data"]["userInfo"]["employee"]["name"]</t>
-  </si>
-  <si>
-    <t>乔琳</t>
   </si>
   <si>
     <t>response_json["mess"]</t>
@@ -161,10 +176,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -198,6 +213,73 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -221,6 +303,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -231,55 +321,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -289,35 +333,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -328,54 +343,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -388,127 +523,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,45 +534,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -572,26 +548,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,12 +569,71 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -627,10 +642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,133 +654,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -791,7 +806,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1142,64 +1157,137 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="16.8916666666667" customWidth="1"/>
-    <col min="2" max="2" width="34.125" customWidth="1"/>
-    <col min="3" max="3" width="24.375" customWidth="1"/>
+    <col min="1" max="1" width="9" customWidth="1"/>
+    <col min="2" max="2" width="33.1111111111111" customWidth="1"/>
+    <col min="3" max="3" width="54.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="7.77777777777778" customWidth="1"/>
+    <col min="5" max="5" width="53.2222222222222" customWidth="1"/>
+    <col min="6" max="6" width="37.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" ht="14" customHeight="1" spans="1:5">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" ht="14" customHeight="1" spans="1:6">
       <c r="A2" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" ht="12" customHeight="1" spans="1:6">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" ht="12" customHeight="1" spans="1:2">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="E5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2">
-      <c r="B5" s="6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="6"/>
+      <c r="C15"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" display="http://120.52.157.131:58080/apis/zznode-csm/cms/login" tooltip="http://120.52.157.131:58080/apis/zznode-csm/cms/login"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1215,55 +1303,55 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="137.125" customWidth="1"/>
+    <col min="1" max="1" width="137.12962962963" customWidth="1"/>
     <col min="2" max="2" width="22.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1284,40 +1372,40 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="140.875" customWidth="1"/>
+    <col min="1" max="1" width="140.87962962963" customWidth="1"/>
     <col min="2" max="2" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1331,80 +1419,80 @@
   <sheetPr/>
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="83.875" customWidth="1"/>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
-    <col min="3" max="3" width="29.625" customWidth="1"/>
+    <col min="1" max="1" width="83.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="15.6296296296296" customWidth="1"/>
+    <col min="3" max="3" width="29.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1422,58 +1510,58 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="56.5" customWidth="1"/>
-    <col min="2" max="2" width="53.375" customWidth="1"/>
+    <col min="2" max="2" width="53.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1492,27 +1580,27 @@
   <dimension ref="A2:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="64.625" customWidth="1"/>
-    <col min="2" max="2" width="17.375" customWidth="1"/>
+    <col min="1" max="1" width="59.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="17.3796296296296" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
+    <col min="4" max="4" width="10.8796296296296" customWidth="1"/>
     <col min="5" max="5" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1530,32 +1618,32 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="72.125" customWidth="1"/>
-    <col min="2" max="2" width="53.125" customWidth="1"/>
+    <col min="1" max="1" width="72.1296296296296" customWidth="1"/>
+    <col min="2" max="2" width="53.1296296296296" customWidth="1"/>
     <col min="3" max="3" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1577,20 +1665,20 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="13.875" customWidth="1"/>
-    <col min="2" max="2" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="13.8796296296296" customWidth="1"/>
+    <col min="2" max="2" width="16.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1608,23 +1696,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="58.875" customWidth="1"/>
+    <col min="1" max="1" width="58.8796296296296" customWidth="1"/>
     <col min="2" max="2" width="34.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1645,15 +1733,15 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="111.375" customWidth="1"/>
+    <col min="1" max="1" width="111.37962962963" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" ht="40.5" spans="1:1">
+    <row r="2" ht="43.2" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -1671,23 +1759,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="72.625" customWidth="1"/>
-    <col min="2" max="2" width="18.375" customWidth="1"/>
+    <col min="1" max="1" width="72.6296296296296" customWidth="1"/>
+    <col min="2" max="2" width="18.3796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1708,29 +1796,29 @@
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="14.6296296296296" customWidth="1"/>
+    <col min="4" max="4" width="13.8796296296296" customWidth="1"/>
+    <col min="5" max="5" width="14.8796296296296" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1749,19 +1837,19 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -1769,7 +1857,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D4">
         <v>10</v>
@@ -1794,7 +1882,7 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>2</v>
